--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archi\Documents\Bulk-E-mails-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A27747-377F-4ED1-8F2D-F61E06B1FD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CC77A9-13FE-4B4F-A5C4-91239304CB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{CE93CF16-0FE6-4BFD-B498-ED38D15E11E0}"/>
   </bookViews>
@@ -44,28 +44,28 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Archi Jain</t>
-  </si>
-  <si>
-    <t>Shivam Sharma</t>
-  </si>
-  <si>
-    <t>Sahil Dholpuria</t>
-  </si>
-  <si>
-    <t>Rinchi Jain</t>
-  </si>
-  <si>
-    <t>shivamsharma7899@gmail.com</t>
-  </si>
-  <si>
-    <t>hackcheck000@gmail.com</t>
-  </si>
-  <si>
-    <t>jainachi389@gmail.com</t>
-  </si>
-  <si>
-    <t>2101560011@krmu.edu.in</t>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>REO</t>
+  </si>
+  <si>
+    <t>adam56@gmail.com</t>
+  </si>
+  <si>
+    <t>tokyo@gmail.com</t>
+  </si>
+  <si>
+    <t>hackch@gmail.com</t>
+  </si>
+  <si>
+    <t>reo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
